--- a/documents/FIGURES FOR VZ copy.xlsx
+++ b/documents/FIGURES FOR VZ copy.xlsx
@@ -5,22 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barnie/Documents/DRUGS STORY &amp; ASSIGNMENT/DRUGS FOI FOR GITHUB/EXCEL SHEETS &amp; FOI RESPONSES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barnie/Documents/DRUGS STORY &amp; ASSIGNMENT/DRUGS FOI FOR GITHUB/EXCEL SHEETS &amp; FOI RESPONSES/VIZ DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D669D18-4761-1749-B4A1-00AFC7F53955}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C3E89C-BAF6-6347-9883-D4EAA342C3B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{0032D6DF-6F90-1F4C-A2A4-844455CB6AC2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{0032D6DF-6F90-1F4C-A2A4-844455CB6AC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Bar charts of actual figures" sheetId="1" r:id="rId1"/>
     <sheet name="Year-on-year % change" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'Year-on-year % change'!$A$116:$A$118</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Year-on-year % change'!$B$115</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Year-on-year % change'!$B$116:$B$118</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1481,7 +1476,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Year-on-year % change'!$D$73</c15:sqref>
@@ -1505,7 +1500,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Year-on-year % change'!$A$74:$A$76</c15:sqref>
@@ -1528,7 +1523,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Year-on-year % change'!$D$74:$D$76</c15:sqref>
@@ -1541,7 +1536,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-614D-F94B-B9CC-DDBA9403D8C3}"/>
                   </c:ext>
@@ -1802,7 +1797,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.4</c:v>
@@ -3950,7 +3945,7 @@
                   <c:v>4217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1472</c:v>
+                  <c:v>1530</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3608</c:v>
@@ -4015,7 +4010,7 @@
                   <c:v>4657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1628</c:v>
+                  <c:v>1682</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3792</c:v>
@@ -13745,8 +13740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6149C75B-1014-6048-9B5B-726EFC7960C2}">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14019,7 +14014,7 @@
         <v>4217</v>
       </c>
       <c r="C89" s="5">
-        <v>1472</v>
+        <v>1530</v>
       </c>
       <c r="D89" s="5">
         <v>3608</v>
@@ -14033,7 +14028,7 @@
         <v>4657</v>
       </c>
       <c r="C90" s="5">
-        <v>1628</v>
+        <v>1682</v>
       </c>
       <c r="D90" s="5">
         <v>3792</v>
@@ -14094,8 +14089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9630C8FD-9455-534D-B48D-58A4DBFAB3DE}">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="N116" sqref="N116"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14325,7 +14320,7 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <v>10.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
